--- a/biology/Médecine/Distomatose/Distomatose.xlsx
+++ b/biology/Médecine/Distomatose/Distomatose.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Les distomatoses sont des parasitoses provoquées par des douves ou distomes, vers plats parasites trématodes.
 Ce sont des anthropozoonoses, communes à l’homme et à certains animaux. L’atteinte humaine est accidentelle et occasionnelle. 
@@ -513,7 +525,9 @@
           <t>Distomatoses hépatobiliaires</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>Parmi les distomatoses hépatobiliaires, on distingue :
 distomatose ou fasciolose à Fasciola hepatica
@@ -547,7 +561,9 @@
           <t>Distomatoses pulmonaires</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Parmi les distomatoses pulmonaires, ou paragonimoses, on distingue :
 distomatose à Paragonimus ringeri
@@ -583,10 +599,12 @@
           <t>Distomatoses intestinales</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>Parmi les distomatoses intestinales, on distingue :
-distomatose à Fasciolopsis buski[1]
+distomatose à Fasciolopsis buski
 distomatose à Heterophyes heterophyes
 distomatose à Metagonimus yokogawai
 distomatose à Gastrodiscoides hominis
